--- a/files/input/productsDataMDB.xlsx
+++ b/files/input/productsDataMDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="43">
   <si>
     <t>DB</t>
   </si>
@@ -94,6 +94,60 @@
   </si>
   <si>
     <t>startingPriceTotal</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>65489621</t>
+  </si>
+  <si>
+    <t>68546513</t>
+  </si>
+  <si>
+    <t>68546511</t>
   </si>
 </sst>
 </file>
@@ -129,8 +183,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -414,11 +471,12 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
@@ -426,7 +484,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
@@ -435,7 +493,7 @@
       <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E1" t="s">
@@ -464,8 +522,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -473,8 +531,8 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
-        <v>65489621</v>
+      <c r="D2" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -502,8 +560,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -511,8 +569,8 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3">
-        <v>68546513</v>
+      <c r="D3" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -540,8 +598,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -549,8 +607,8 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4">
-        <v>68546511</v>
+      <c r="D4" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
@@ -578,8 +636,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -587,8 +645,8 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5">
-        <v>65489621</v>
+      <c r="D5" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E5" t="s">
         <v>0</v>
@@ -616,8 +674,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -625,8 +683,8 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6">
-        <v>68546513</v>
+      <c r="D6" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E6" t="s">
         <v>0</v>
@@ -654,8 +712,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -663,8 +721,8 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7">
-        <v>68546511</v>
+      <c r="D7" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -692,8 +750,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -701,8 +759,8 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8">
-        <v>65489621</v>
+      <c r="D8" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E8" t="s">
         <v>0</v>
@@ -730,8 +788,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -739,8 +797,8 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9">
-        <v>68546513</v>
+      <c r="D9" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E9" t="s">
         <v>0</v>
@@ -768,8 +826,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -777,8 +835,8 @@
       <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10">
-        <v>68546511</v>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="E10" t="s">
         <v>1</v>
@@ -806,8 +864,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -815,8 +873,8 @@
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D11">
-        <v>65489621</v>
+      <c r="D11" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E11" t="s">
         <v>0</v>
@@ -844,8 +902,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -853,8 +911,8 @@
       <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D12">
-        <v>68546513</v>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E12" t="s">
         <v>0</v>
@@ -882,8 +940,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -891,8 +949,8 @@
       <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D13">
-        <v>68546511</v>
+      <c r="D13" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -920,8 +978,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
+      <c r="A14" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -929,8 +987,8 @@
       <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="D14">
-        <v>65489621</v>
+      <c r="D14" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E14" t="s">
         <v>0</v>
@@ -958,8 +1016,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
+      <c r="A15" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -967,8 +1025,8 @@
       <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="D15">
-        <v>68546513</v>
+      <c r="D15" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E15" t="s">
         <v>0</v>
@@ -996,8 +1054,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
+      <c r="A16" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -1005,8 +1063,8 @@
       <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="D16">
-        <v>68546511</v>
+      <c r="D16" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>

--- a/files/input/productsDataMDB.xlsx
+++ b/files/input/productsDataMDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
   <si>
     <t>DB</t>
   </si>
@@ -36,12 +36,6 @@
     <t>Płock</t>
   </si>
   <si>
-    <t>WA0</t>
-  </si>
-  <si>
-    <t>WB1</t>
-  </si>
-  <si>
     <t>productNumber</t>
   </si>
   <si>
@@ -51,12 +45,6 @@
     <t>woodNumber</t>
   </si>
   <si>
-    <t>random</t>
-  </si>
-  <si>
-    <t>lctwo</t>
-  </si>
-  <si>
     <t>species</t>
   </si>
   <si>
@@ -81,15 +69,6 @@
     <t>startingPriceTotal</t>
   </si>
   <si>
-    <t>jeden</t>
-  </si>
-  <si>
-    <t>dwa</t>
-  </si>
-  <si>
-    <t>trzy</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -105,36 +84,12 @@
     <t>5</t>
   </si>
   <si>
-    <t>65489621</t>
-  </si>
-  <si>
-    <t>68546513</t>
-  </si>
-  <si>
-    <t>68546511</t>
-  </si>
-  <si>
-    <t>68546512</t>
-  </si>
-  <si>
-    <t>cztery</t>
-  </si>
-  <si>
-    <t>68546514</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>piec</t>
-  </si>
-  <si>
-    <t>68546515</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -171,25 +126,151 @@
     <t>19</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
+    <t>Bełchatów</t>
+  </si>
+  <si>
+    <t>Brzeziny</t>
+  </si>
+  <si>
+    <t>Gostynin</t>
+  </si>
+  <si>
+    <t>Kutno</t>
+  </si>
+  <si>
+    <t>Kolumna</t>
+  </si>
+  <si>
+    <t>Łąck</t>
+  </si>
+  <si>
+    <t>Opoczno</t>
+  </si>
+  <si>
+    <t>Poddębice</t>
+  </si>
+  <si>
+    <t>Piotrków</t>
+  </si>
+  <si>
+    <t>Radziwiłłów</t>
+  </si>
+  <si>
+    <t>Radomsko</t>
+  </si>
+  <si>
+    <t>Smardzewice</t>
+  </si>
+  <si>
+    <t>Skierniewice</t>
+  </si>
+  <si>
+    <t>Spała</t>
+  </si>
+  <si>
+    <t>Grotniki</t>
+  </si>
+  <si>
+    <t>Przedbórz</t>
+  </si>
+  <si>
+    <t>Głupice</t>
+  </si>
+  <si>
+    <t>Janinów</t>
+  </si>
+  <si>
+    <t>Studzianka</t>
+  </si>
+  <si>
+    <t>Lubraniec</t>
+  </si>
+  <si>
+    <t>Tuszyn</t>
+  </si>
+  <si>
+    <t>Soczewka</t>
+  </si>
+  <si>
+    <t>Królówka</t>
+  </si>
+  <si>
+    <t>Gostków</t>
+  </si>
+  <si>
+    <t>Przygłów</t>
+  </si>
+  <si>
+    <t>Sikórz</t>
+  </si>
+  <si>
+    <t>Młodzieszyn</t>
+  </si>
+  <si>
+    <t>Bąkowa Góra</t>
+  </si>
+  <si>
+    <t>Trzebiatów</t>
+  </si>
+  <si>
+    <t>Babsk</t>
+  </si>
+  <si>
+    <t>Czółna</t>
+  </si>
+  <si>
+    <t>Cisowa</t>
+  </si>
+  <si>
+    <t>Brąszewice</t>
+  </si>
+  <si>
+    <t>Smulsko</t>
+  </si>
+  <si>
+    <t>Nosalewice</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>1234567891</t>
+  </si>
+  <si>
+    <t>2345678912</t>
+  </si>
+  <si>
+    <t>3456789123</t>
+  </si>
+  <si>
+    <t>4567891234</t>
+  </si>
+  <si>
+    <t>5678912345</t>
+  </si>
+  <si>
+    <t>6789123465</t>
+  </si>
+  <si>
+    <t>7891234567</t>
+  </si>
+  <si>
+    <t>8912345678</t>
+  </si>
+  <si>
+    <t>9123456789</t>
+  </si>
+  <si>
+    <t>6789123456</t>
   </si>
 </sst>
 </file>
@@ -508,70 +589,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="48.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>5.5</v>
@@ -583,7 +665,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="J2">
         <v>1000</v>
@@ -594,19 +676,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>4.5</v>
@@ -618,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="J3">
         <v>1000</v>
@@ -629,19 +711,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>2.5</v>
@@ -653,7 +735,7 @@
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="J4">
         <v>1000</v>
@@ -664,19 +746,19 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>2.5</v>
@@ -688,7 +770,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="J5">
         <v>1000</v>
@@ -699,19 +781,19 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>2.5</v>
@@ -723,7 +805,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="J6">
         <v>1000</v>
@@ -734,19 +816,19 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>2.5</v>
@@ -758,7 +840,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="J7">
         <v>1000</v>
@@ -769,19 +851,19 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>2.5</v>
@@ -793,7 +875,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="J8">
         <v>1000</v>
@@ -804,19 +886,19 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>2.5</v>
@@ -828,7 +910,7 @@
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="J9">
         <v>1000</v>
@@ -839,19 +921,19 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>2.5</v>
@@ -863,7 +945,7 @@
         <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="J10">
         <v>1000</v>
@@ -874,19 +956,19 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>2.5</v>
@@ -898,7 +980,7 @@
         <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="J11">
         <v>1000</v>
@@ -909,19 +991,19 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>2.5</v>
@@ -933,7 +1015,7 @@
         <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="J12">
         <v>1000</v>
@@ -944,19 +1026,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>2.5</v>
@@ -968,7 +1050,7 @@
         <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="J13">
         <v>1000</v>
@@ -979,19 +1061,19 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>2.5</v>
@@ -1003,7 +1085,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="J14">
         <v>1000</v>
@@ -1014,19 +1096,19 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>2.5</v>
@@ -1038,7 +1120,7 @@
         <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="J15">
         <v>1000</v>
@@ -1049,19 +1131,19 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>2.5</v>
@@ -1073,7 +1155,7 @@
         <v>4</v>
       </c>
       <c r="I16" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="J16">
         <v>1000</v>
@@ -1084,16 +1166,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
         <v>1</v>
@@ -1108,7 +1190,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="J17">
         <v>1000</v>
@@ -1119,16 +1201,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
         <v>1</v>
@@ -1143,7 +1225,7 @@
         <v>4</v>
       </c>
       <c r="I18" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="J18">
         <v>1000</v>
@@ -1154,16 +1236,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s">
         <v>1</v>
@@ -1178,7 +1260,7 @@
         <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="J19">
         <v>1000</v>
@@ -1189,16 +1271,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
         <v>1</v>
@@ -1213,257 +1295,12 @@
         <v>4</v>
       </c>
       <c r="I20" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="J20">
         <v>1000</v>
       </c>
       <c r="K20">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>2.5</v>
-      </c>
-      <c r="G21">
-        <v>35</v>
-      </c>
-      <c r="H21">
-        <v>4</v>
-      </c>
-      <c r="I21" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21">
-        <v>1000</v>
-      </c>
-      <c r="K21">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>2.5</v>
-      </c>
-      <c r="G22">
-        <v>35</v>
-      </c>
-      <c r="H22">
-        <v>4</v>
-      </c>
-      <c r="I22" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22">
-        <v>1000</v>
-      </c>
-      <c r="K22">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>2.5</v>
-      </c>
-      <c r="G23">
-        <v>35</v>
-      </c>
-      <c r="H23">
-        <v>4</v>
-      </c>
-      <c r="I23" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23">
-        <v>1000</v>
-      </c>
-      <c r="K23">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>2.5</v>
-      </c>
-      <c r="G24">
-        <v>35</v>
-      </c>
-      <c r="H24">
-        <v>4</v>
-      </c>
-      <c r="I24" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24">
-        <v>1000</v>
-      </c>
-      <c r="K24">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>2.5</v>
-      </c>
-      <c r="G25">
-        <v>35</v>
-      </c>
-      <c r="H25">
-        <v>4</v>
-      </c>
-      <c r="I25" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25">
-        <v>1000</v>
-      </c>
-      <c r="K25">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>2.5</v>
-      </c>
-      <c r="G26">
-        <v>35</v>
-      </c>
-      <c r="H26">
-        <v>4</v>
-      </c>
-      <c r="I26" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26">
-        <v>1000</v>
-      </c>
-      <c r="K26">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>2.5</v>
-      </c>
-      <c r="G27">
-        <v>35</v>
-      </c>
-      <c r="H27">
-        <v>4</v>
-      </c>
-      <c r="I27" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27">
-        <v>1000</v>
-      </c>
-      <c r="K27">
         <v>4000</v>
       </c>
     </row>
